--- a/ocms/target/test-classes/TestData/UserRoleMappingData.xlsx
+++ b/ocms/target/test-classes/TestData/UserRoleMappingData.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5719FC-B7C4-48EE-A192-A62D3D6EF3CB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
     <sheet name="Edit" sheetId="2" r:id="rId2"/>
     <sheet name="Delete" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -91,12 +91,27 @@
   </si>
   <si>
     <t>akshith</t>
+  </si>
+  <si>
+    <t>Maker</t>
+  </si>
+  <si>
+    <t>Nav</t>
+  </si>
+  <si>
+    <t>Goenka</t>
+  </si>
+  <si>
+    <t>User Name</t>
+  </si>
+  <si>
+    <t>Korea</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -199,7 +214,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -234,7 +249,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -411,27 +426,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:H3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -443,7 +459,7 @@
         <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -463,19 +479,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D2" s="2">
         <v>55501</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -484,34 +500,12 @@
         <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -520,7 +514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE176447-87D7-4EDC-896D-9D23F07DF512}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -632,7 +626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABD6B37-7362-47B2-8F62-99134BB2493A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/ocms/target/test-classes/TestData/UserRoleMappingData.xlsx
+++ b/ocms/target/test-classes/TestData/UserRoleMappingData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Delete" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:G20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -426,7 +426,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -436,8 +436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,7 +517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>

--- a/ocms/target/test-classes/TestData/UserRoleMappingData.xlsx
+++ b/ocms/target/test-classes/TestData/UserRoleMappingData.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
     <sheet name="Edit" sheetId="2" r:id="rId2"/>
     <sheet name="Delete" sheetId="3" r:id="rId3"/>
+    <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:G20"/>
+  <oleSize ref="A1:O20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,90 +23,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="22">
   <si>
     <t>Modify Reason</t>
   </si>
   <si>
+    <t>Avaya Login ID</t>
+  </si>
+  <si>
+    <t>Team Name</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>Supervisor</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>User Name</t>
+  </si>
+  <si>
+    <t>OCM Maker</t>
+  </si>
+  <si>
+    <t>Chaithra</t>
+  </si>
+  <si>
+    <t>Kanchan</t>
+  </si>
+  <si>
+    <t>50099</t>
+  </si>
+  <si>
+    <t>Singapore&gt;SingtelTDM&gt;CallCentre&gt;TDMSupport</t>
+  </si>
+  <si>
+    <t>Aravind ET</t>
+  </si>
+  <si>
+    <t>OrgUnit</t>
+  </si>
+  <si>
+    <t>TDMSupport</t>
+  </si>
+  <si>
+    <t>Modified</t>
+  </si>
+  <si>
+    <t>Updated First Name</t>
+  </si>
+  <si>
+    <t>Chaithraa</t>
+  </si>
+  <si>
     <t>Delete Reason</t>
   </si>
   <si>
-    <t>Deleted</t>
-  </si>
-  <si>
-    <t>Bank User Name</t>
-  </si>
-  <si>
-    <t>Avaya Login ID</t>
-  </si>
-  <si>
-    <t>Team Name</t>
-  </si>
-  <si>
-    <t>Profile</t>
-  </si>
-  <si>
-    <t>Supervisor</t>
-  </si>
-  <si>
-    <t>User role mapping data modified</t>
-  </si>
-  <si>
-    <t>Support</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>qatest</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Akshadmin</t>
-  </si>
-  <si>
-    <t>URMS</t>
-  </si>
-  <si>
-    <t>URMA</t>
-  </si>
-  <si>
-    <t>URMSupervisor</t>
-  </si>
-  <si>
-    <t>URMAgent</t>
-  </si>
-  <si>
-    <t>55502</t>
-  </si>
-  <si>
-    <t>Agent</t>
-  </si>
-  <si>
-    <t>akshith</t>
-  </si>
-  <si>
-    <t>Maker</t>
-  </si>
-  <si>
-    <t>Nav</t>
-  </si>
-  <si>
-    <t>Goenka</t>
-  </si>
-  <si>
-    <t>User Name</t>
-  </si>
-  <si>
-    <t>Korea</t>
+    <t>Query</t>
   </si>
 </sst>
 </file>
@@ -434,76 +417,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" customWidth="1"/>
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="5" max="5" width="44.28515625" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="2">
-        <v>55501</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
     </row>
@@ -515,10 +504,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,97 +517,85 @@
     <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2">
-        <v>55501</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="K2" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>8</v>
-      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -627,40 +604,104 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/target/test-classes/TestData/UserRoleMappingData.xlsx
+++ b/ocms/target/test-classes/TestData/UserRoleMappingData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O20"/>
+  <oleSize ref="A1:L20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -55,15 +55,6 @@
     <t>OCM Maker</t>
   </si>
   <si>
-    <t>Chaithra</t>
-  </si>
-  <si>
-    <t>Kanchan</t>
-  </si>
-  <si>
-    <t>50099</t>
-  </si>
-  <si>
     <t>Singapore&gt;SingtelTDM&gt;CallCentre&gt;TDMSupport</t>
   </si>
   <si>
@@ -82,13 +73,22 @@
     <t>Updated First Name</t>
   </si>
   <si>
-    <t>Chaithraa</t>
-  </si>
-  <si>
     <t>Delete Reason</t>
   </si>
   <si>
     <t>Query</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Madina</t>
+  </si>
+  <si>
+    <t>607</t>
+  </si>
+  <si>
+    <t>Maxxx</t>
   </si>
 </sst>
 </file>
@@ -131,12 +131,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,7 +410,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -419,8 +420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,36 +461,36 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -506,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,48 +550,48 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
         <v>0</v>
       </c>
       <c r="K1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -606,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,42 +645,42 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
       <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -695,13 +696,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/target/test-classes/TestData/UserRoleMappingData.xlsx
+++ b/ocms/target/test-classes/TestData/UserRoleMappingData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="6060"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L20"/>
+  <oleSize ref="B1:J18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,37 +58,37 @@
     <t>Singapore&gt;SingtelTDM&gt;CallCentre&gt;TDMSupport</t>
   </si>
   <si>
+    <t>OrgUnit</t>
+  </si>
+  <si>
+    <t>TDMSupport</t>
+  </si>
+  <si>
+    <t>Modified</t>
+  </si>
+  <si>
+    <t>Updated First Name</t>
+  </si>
+  <si>
+    <t>Delete Reason</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Madina</t>
+  </si>
+  <si>
+    <t>607</t>
+  </si>
+  <si>
+    <t>Maxxx</t>
+  </si>
+  <si>
     <t>Aravind ET</t>
-  </si>
-  <si>
-    <t>OrgUnit</t>
-  </si>
-  <si>
-    <t>TDMSupport</t>
-  </si>
-  <si>
-    <t>Modified</t>
-  </si>
-  <si>
-    <t>Updated First Name</t>
-  </si>
-  <si>
-    <t>Delete Reason</t>
-  </si>
-  <si>
-    <t>Query</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Madina</t>
-  </si>
-  <si>
-    <t>607</t>
-  </si>
-  <si>
-    <t>Maxxx</t>
   </si>
 </sst>
 </file>
@@ -410,7 +410,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -420,8 +420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,6 +432,7 @@
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44.28515625" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -461,21 +462,21 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -484,13 +485,13 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -507,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,27 +551,27 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J1" t="s">
         <v>0</v>
       </c>
       <c r="K1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -579,19 +580,19 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
       </c>
       <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -607,15 +608,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
     <col min="10" max="10" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -645,24 +647,24 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -671,16 +673,16 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
       </c>
       <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
         <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -702,7 +704,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/target/test-classes/TestData/UserRoleMappingData.xlsx
+++ b/ocms/target/test-classes/TestData/UserRoleMappingData.xlsx
@@ -4,16 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="6060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="10230" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
-    <sheet name="Edit" sheetId="2" r:id="rId2"/>
-    <sheet name="Delete" sheetId="3" r:id="rId3"/>
-    <sheet name="Queries" sheetId="4" r:id="rId4"/>
+    <sheet name="Invalid" sheetId="5" r:id="rId2"/>
+    <sheet name="Edit" sheetId="2" r:id="rId3"/>
+    <sheet name="Delete" sheetId="3" r:id="rId4"/>
+    <sheet name="Queries" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="B1:J18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="28">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -89,26 +89,37 @@
   </si>
   <si>
     <t>Aravind ET</t>
+  </si>
+  <si>
+    <t>Palak</t>
+  </si>
+  <si>
+    <t>ra</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>India&gt;South&gt;Mangalore&gt;ProjectQA</t>
+  </si>
+  <si>
+    <t>Aravinda ET</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF008000"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -133,11 +144,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,7 +445,7 @@
     <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -465,7 +474,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -475,7 +484,7 @@
       <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E2" t="s">
@@ -495,8 +504,33 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C3" s="1"/>
-      <c r="D3" s="2"/>
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -506,10 +540,83 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,7 +632,7 @@
     <col min="9" max="9" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -560,7 +667,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -570,7 +677,7 @@
       <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E2" t="s">
@@ -596,20 +703,51 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C3" s="1"/>
-      <c r="D3" s="2"/>
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,7 +759,7 @@
     <col min="10" max="10" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -653,7 +791,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -663,7 +801,7 @@
       <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E2" t="s">
@@ -685,16 +823,44 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/ocms/target/test-classes/TestData/UserRoleMappingData.xlsx
+++ b/ocms/target/test-classes/TestData/UserRoleMappingData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="10230" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:L24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="26">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -55,15 +56,9 @@
     <t>OCM Maker</t>
   </si>
   <si>
-    <t>Singapore&gt;SingtelTDM&gt;CallCentre&gt;TDMSupport</t>
-  </si>
-  <si>
     <t>OrgUnit</t>
   </si>
   <si>
-    <t>TDMSupport</t>
-  </si>
-  <si>
     <t>Modified</t>
   </si>
   <si>
@@ -88,9 +83,6 @@
     <t>Maxxx</t>
   </si>
   <si>
-    <t>Aravind ET</t>
-  </si>
-  <si>
     <t>Palak</t>
   </si>
   <si>
@@ -103,10 +95,13 @@
     <t>a</t>
   </si>
   <si>
-    <t>India&gt;South&gt;Mangalore&gt;ProjectQA</t>
-  </si>
-  <si>
-    <t>Aravinda ET</t>
+    <t>Palak Garg</t>
+  </si>
+  <si>
+    <t>India&gt;South&gt;Bangalore&gt;ProductQA</t>
+  </si>
+  <si>
+    <t>ProductQA</t>
   </si>
 </sst>
 </file>
@@ -142,11 +137,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,8 +422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,6 +436,7 @@
     <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -471,65 +465,65 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>26</v>
+      <c r="E3" t="s">
+        <v>24</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -583,27 +577,27 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -616,7 +610,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,83 +652,83 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J1" t="s">
         <v>0</v>
       </c>
       <c r="K1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>26</v>
+      <c r="E3" t="s">
+        <v>24</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -746,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,74 +779,74 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>26</v>
+      <c r="E3" t="s">
+        <v>24</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -870,7 +864,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/target/test-classes/TestData/UserRoleMappingData.xlsx
+++ b/ocms/target/test-classes/TestData/UserRoleMappingData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -95,13 +95,13 @@
     <t>a</t>
   </si>
   <si>
-    <t>Palak Garg</t>
-  </si>
-  <si>
     <t>India&gt;South&gt;Bangalore&gt;ProductQA</t>
   </si>
   <si>
     <t>ProductQA</t>
+  </si>
+  <si>
+    <t>Santosh K</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,19 +482,19 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -511,19 +511,19 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -610,7 +610,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,19 +675,19 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -710,19 +710,19 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -741,7 +741,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,19 +799,19 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -831,19 +831,19 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>

--- a/ocms/target/test-classes/TestData/UserRoleMappingData.xlsx
+++ b/ocms/target/test-classes/TestData/UserRoleMappingData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="8040" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,6 @@
     <sheet name="Queries" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -101,7 +100,7 @@
     <t>ProductQA</t>
   </si>
   <si>
-    <t>Santosh K</t>
+    <t>Palak Garg</t>
   </si>
 </sst>
 </file>
@@ -137,9 +136,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,8 +422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,7 +487,7 @@
       <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H2" t="s">
@@ -516,7 +516,7 @@
       <c r="F3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H3" t="s">
@@ -680,7 +680,7 @@
       <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H2" t="s">
@@ -715,7 +715,7 @@
       <c r="F3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H3" t="s">
@@ -740,7 +740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -804,7 +804,7 @@
       <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H2" t="s">
@@ -836,7 +836,7 @@
       <c r="F3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H3" t="s">

--- a/ocms/target/test-classes/TestData/UserRoleMappingData.xlsx
+++ b/ocms/target/test-classes/TestData/UserRoleMappingData.xlsx
@@ -4,14 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="8040" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14300" windowHeight="5910" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
-    <sheet name="Invalid" sheetId="5" r:id="rId2"/>
-    <sheet name="Edit" sheetId="2" r:id="rId3"/>
-    <sheet name="Delete" sheetId="3" r:id="rId4"/>
-    <sheet name="Queries" sheetId="4" r:id="rId5"/>
+    <sheet name="Edit" sheetId="2" r:id="rId2"/>
+    <sheet name="Delete" sheetId="3" r:id="rId3"/>
+    <sheet name="Invalid" sheetId="5" r:id="rId4"/>
+    <sheet name="Create1" sheetId="6" r:id="rId5"/>
+    <sheet name="Update1" sheetId="7" r:id="rId6"/>
+    <sheet name="Delete1" sheetId="8" r:id="rId7"/>
+    <sheet name="Invalid1" sheetId="9" r:id="rId8"/>
+    <sheet name="Queries" sheetId="4" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -23,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="36">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -101,6 +105,36 @@
   </si>
   <si>
     <t>Palak Garg</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>Maker</t>
+  </si>
+  <si>
+    <t>Lion</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>Million</t>
+  </si>
+  <si>
+    <t>vagagag</t>
+  </si>
+  <si>
+    <t>Deleted</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>Agent1</t>
   </si>
 </sst>
 </file>
@@ -136,10 +170,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,23 +456,23 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.1796875" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.26953125" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7265625" customWidth="1"/>
+    <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -468,7 +501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -487,7 +520,7 @@
       <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
         <v>25</v>
       </c>
       <c r="H2" t="s">
@@ -497,7 +530,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -516,7 +549,7 @@
       <c r="F3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" t="s">
         <v>25</v>
       </c>
       <c r="H3" t="s">
@@ -534,24 +567,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" customWidth="1"/>
+    <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -579,25 +614,81 @@
       <c r="I1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -607,26 +698,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.7265625" customWidth="1"/>
+    <col min="7" max="7" width="14.26953125" customWidth="1"/>
+    <col min="10" max="10" width="17.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -655,15 +742,12 @@
         <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -680,7 +764,7 @@
       <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
         <v>25</v>
       </c>
       <c r="H2" t="s">
@@ -692,13 +776,10 @@
       <c r="J2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -715,7 +796,7 @@
       <c r="F3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" t="s">
         <v>25</v>
       </c>
       <c r="H3" t="s">
@@ -726,9 +807,6 @@
       </c>
       <c r="J3" t="s">
         <v>11</v>
-      </c>
-      <c r="K3" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -738,22 +816,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.7265625" customWidth="1"/>
+    <col min="2" max="2" width="19.26953125" customWidth="1"/>
+    <col min="3" max="3" width="24.81640625" customWidth="1"/>
+    <col min="4" max="4" width="27.1796875" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="19.453125" customWidth="1"/>
+    <col min="7" max="7" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -781,72 +861,25 @@
       <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -856,13 +889,362 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="4" max="4" width="19.36328125" customWidth="1"/>
+    <col min="5" max="5" width="18.1796875" customWidth="1"/>
+    <col min="6" max="7" width="19.36328125" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.6328125" customWidth="1"/>
+    <col min="2" max="2" width="18.08984375" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" customWidth="1"/>
+    <col min="5" max="5" width="18.08984375" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" customWidth="1"/>
+    <col min="9" max="9" width="12.1796875" customWidth="1"/>
+    <col min="10" max="10" width="15.54296875" customWidth="1"/>
+    <col min="11" max="11" width="17.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.7265625" customWidth="1"/>
+    <col min="2" max="2" width="14.36328125" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" customWidth="1"/>
+    <col min="5" max="5" width="17.36328125" customWidth="1"/>
+    <col min="6" max="6" width="13.6328125" customWidth="1"/>
+    <col min="7" max="7" width="17.54296875" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" customWidth="1"/>
+    <col min="9" max="9" width="15.54296875" customWidth="1"/>
+    <col min="10" max="10" width="12.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.54296875" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" customWidth="1"/>
+    <col min="3" max="4" width="17.08984375" customWidth="1"/>
+    <col min="5" max="5" width="19.54296875" customWidth="1"/>
+    <col min="6" max="6" width="18.08984375" customWidth="1"/>
+    <col min="7" max="7" width="16.36328125" customWidth="1"/>
+    <col min="8" max="9" width="13.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>14</v>
       </c>

--- a/ocms/target/test-classes/TestData/UserRoleMappingData.xlsx
+++ b/ocms/target/test-classes/TestData/UserRoleMappingData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14300" windowHeight="5910" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15600" windowHeight="6615" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:J20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="37">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -135,6 +136,9 @@
   </si>
   <si>
     <t>Agent1</t>
+  </si>
+  <si>
+    <t>Aravinda ET</t>
   </si>
 </sst>
 </file>
@@ -445,7 +449,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -456,23 +460,23 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" customWidth="1"/>
-    <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.26953125" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7265625" customWidth="1"/>
-    <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.54296875" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -501,7 +505,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -521,7 +525,7 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -530,7 +534,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -550,7 +554,7 @@
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
@@ -569,24 +573,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" customWidth="1"/>
-    <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7265625" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -621,7 +625,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -641,7 +645,7 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -656,7 +660,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -676,7 +680,7 @@
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
@@ -693,27 +697,29 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.7265625" customWidth="1"/>
-    <col min="7" max="7" width="14.26953125" customWidth="1"/>
-    <col min="10" max="10" width="17.26953125" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -745,7 +751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -765,7 +771,7 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -777,7 +783,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -797,7 +803,7 @@
         <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
@@ -809,6 +815,7 @@
         <v>11</v>
       </c>
     </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -822,18 +829,18 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7265625" customWidth="1"/>
-    <col min="2" max="2" width="19.26953125" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" customWidth="1"/>
-    <col min="4" max="4" width="27.1796875" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="19.453125" customWidth="1"/>
-    <col min="7" max="7" width="15.54296875" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -862,22 +869,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -891,22 +898,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.453125" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" customWidth="1"/>
-    <col min="4" max="4" width="19.36328125" customWidth="1"/>
-    <col min="5" max="5" width="18.1796875" customWidth="1"/>
-    <col min="6" max="7" width="19.36328125" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="7" width="19.42578125" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -935,7 +942,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -974,25 +981,25 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.08984375" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" customWidth="1"/>
-    <col min="4" max="4" width="14.7265625" customWidth="1"/>
-    <col min="5" max="5" width="18.08984375" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" customWidth="1"/>
-    <col min="9" max="9" width="12.1796875" customWidth="1"/>
-    <col min="10" max="10" width="15.54296875" customWidth="1"/>
-    <col min="11" max="11" width="17.08984375" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1027,7 +1034,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1075,21 +1082,21 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" customWidth="1"/>
-    <col min="2" max="2" width="14.36328125" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" customWidth="1"/>
-    <col min="5" max="5" width="17.36328125" customWidth="1"/>
-    <col min="6" max="6" width="13.6328125" customWidth="1"/>
-    <col min="7" max="7" width="17.54296875" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" customWidth="1"/>
-    <col min="9" max="9" width="15.54296875" customWidth="1"/>
-    <col min="10" max="10" width="12.6328125" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1121,7 +1128,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -1162,22 +1169,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" customWidth="1"/>
-    <col min="3" max="4" width="17.08984375" customWidth="1"/>
-    <col min="5" max="5" width="19.54296875" customWidth="1"/>
-    <col min="6" max="6" width="18.08984375" customWidth="1"/>
-    <col min="7" max="7" width="16.36328125" customWidth="1"/>
-    <col min="8" max="9" width="13.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="9" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1206,7 +1213,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>31</v>
       </c>
@@ -1214,17 +1221,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
         <v>35</v>
       </c>
@@ -1242,9 +1249,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>

--- a/ocms/target/test-classes/TestData/UserRoleMappingData.xlsx
+++ b/ocms/target/test-classes/TestData/UserRoleMappingData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{79F2184E-56E6-4A49-AC1A-D64D6646006D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15600" windowHeight="6615" activeTab="2"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="15630" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J20"/>
+  <oleSize ref="A1:J13"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="38">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -139,12 +140,15 @@
   </si>
   <si>
     <t>Aravinda ET</t>
+  </si>
+  <si>
+    <t>OCMMaker</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -449,18 +453,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,7 +532,7 @@
         <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s">
         <v>24</v>
@@ -557,7 +561,7 @@
         <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s">
         <v>24</v>
@@ -570,11 +574,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,7 +652,7 @@
         <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s">
         <v>24</v>
@@ -683,7 +687,7 @@
         <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s">
         <v>24</v>
@@ -702,11 +706,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,7 +778,7 @@
         <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s">
         <v>24</v>
@@ -806,7 +810,7 @@
         <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s">
         <v>24</v>
@@ -822,7 +826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -895,7 +899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -977,7 +981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1075,7 +1079,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1166,7 +1170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1242,7 +1246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/ocms/target/test-classes/TestData/UserRoleMappingData.xlsx
+++ b/ocms/target/test-classes/TestData/UserRoleMappingData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{79F2184E-56E6-4A49-AC1A-D64D6646006D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA323DB-A2B0-4015-A4FD-2921C6E2525E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="15630" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="Queries" sheetId="4" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J13"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="37">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -140,9 +139,6 @@
   </si>
   <si>
     <t>Aravinda ET</t>
-  </si>
-  <si>
-    <t>OCMMaker</t>
   </si>
 </sst>
 </file>
@@ -463,24 +459,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -509,7 +505,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -532,13 +528,13 @@
         <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="I2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -561,7 +557,7 @@
         <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="I3" t="s">
         <v>24</v>
@@ -578,23 +574,23 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.88671875" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -629,7 +625,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -652,7 +648,7 @@
         <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="I2" t="s">
         <v>24</v>
@@ -664,7 +660,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -687,7 +683,7 @@
         <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="I3" t="s">
         <v>24</v>
@@ -707,23 +703,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="31.109375" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -755,7 +751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -778,7 +774,7 @@
         <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="I2" t="s">
         <v>24</v>
@@ -787,7 +783,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -810,7 +806,7 @@
         <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="I3" t="s">
         <v>24</v>
@@ -819,7 +815,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -829,22 +824,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -873,22 +868,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -906,18 +901,18 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="7" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" customWidth="1"/>
+    <col min="6" max="7" width="19.44140625" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -946,7 +941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -988,22 +983,22 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="31.109375" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" customWidth="1"/>
+    <col min="11" max="11" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1038,7 +1033,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1086,21 +1081,21 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1132,7 +1127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -1177,18 +1172,18 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="9" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="4" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" customWidth="1"/>
+    <col min="8" max="9" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1217,7 +1212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>31</v>
       </c>
@@ -1225,17 +1220,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G5" t="s">
         <v>35</v>
       </c>
@@ -1253,9 +1248,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>

--- a/ocms/target/test-classes/TestData/UserRoleMappingData.xlsx
+++ b/ocms/target/test-classes/TestData/UserRoleMappingData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA323DB-A2B0-4015-A4FD-2921C6E2525E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111FBBF5-41B7-4900-A729-3DA09818BCE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="41">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -139,6 +139,18 @@
   </si>
   <si>
     <t>Aravinda ET</t>
+  </si>
+  <si>
+    <t>Agent ID</t>
+  </si>
+  <si>
+    <t>PBX ID</t>
+  </si>
+  <si>
+    <t>900</t>
+  </si>
+  <si>
+    <t>901</t>
   </si>
 </sst>
 </file>
@@ -174,9 +186,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,26 +470,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.109375" customWidth="1"/>
     <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" customWidth="1"/>
+    <col min="3" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -487,25 +500,28 @@
         <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
       <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -515,26 +531,29 @@
       <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
       <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
         <v>36</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -544,22 +563,25 @@
       <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
       <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
         <v>36</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -571,26 +593,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.88671875" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+    <col min="3" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -601,31 +623,34 @@
         <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
       <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -635,32 +660,35 @@
       <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
       <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
         <v>36</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>24</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -670,28 +698,31 @@
       <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
       <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
         <v>36</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>24</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>11</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -703,23 +734,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.109375" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.109375" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -730,28 +761,31 @@
         <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
       <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -761,29 +795,32 @@
       <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
       <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
         <v>36</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>24</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -793,25 +830,28 @@
       <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
       <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
         <v>36</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>24</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -824,7 +864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
